--- a/Rarity.xlsx
+++ b/Rarity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGOTZI\Desktop\YapeQRpro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGOTZI\Desktop\YapeGithub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,9 +128,6 @@
     <t>polkapets</t>
   </si>
   <si>
-    <t>the-million-dollar-punk-draw</t>
-  </si>
-  <si>
     <t>polychainmonsters</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>QR</t>
+  </si>
+  <si>
+    <t>spunks</t>
   </si>
 </sst>
 </file>
@@ -632,6 +632,30 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,30 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,48 +977,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
       <c r="D4" s="5"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="M4" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
@@ -1027,19 +1027,19 @@
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1053,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>2</v>
@@ -1096,28 +1096,28 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="31">
+      <c r="B7" s="26">
         <v>0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="33" t="s">
+      <c r="D7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="14">
@@ -1138,34 +1138,34 @@
       <c r="O7" s="17">
         <v>18</v>
       </c>
-      <c r="P7" s="34">
-        <f>J7+K7+L7+M7+N7+O7</f>
+      <c r="P7" s="29">
+        <f t="shared" ref="P7:P36" si="0">J7+K7+L7+M7+N7+O7</f>
         <v>11169</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="31">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="33" t="s">
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="18">
@@ -1186,34 +1186,34 @@
       <c r="O8" s="21">
         <v>15</v>
       </c>
-      <c r="P8" s="34">
-        <f>J8+K8+L8+M8+N8+O8</f>
+      <c r="P8" s="29">
+        <f t="shared" si="0"/>
         <v>11155</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="31">
+      <c r="B9" s="26">
         <v>2</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="33" t="s">
+      <c r="F9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="18">
@@ -1234,34 +1234,34 @@
       <c r="O9" s="21">
         <v>13</v>
       </c>
-      <c r="P9" s="34">
-        <f>J9+K9+L9+M9+N9+O9</f>
+      <c r="P9" s="29">
+        <f t="shared" si="0"/>
         <v>11145</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>3</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="D10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="18">
@@ -1282,34 +1282,34 @@
       <c r="O10" s="21">
         <v>7</v>
       </c>
-      <c r="P10" s="34">
-        <f>J10+K10+L10+M10+N10+O10</f>
+      <c r="P10" s="29">
+        <f t="shared" si="0"/>
         <v>11141</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>4</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      <c r="D11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="18">
@@ -1330,34 +1330,34 @@
       <c r="O11" s="21">
         <v>13</v>
       </c>
-      <c r="P11" s="34">
-        <f>J11+K11+L11+M11+N11+O11</f>
+      <c r="P11" s="29">
+        <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <v>5</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="D12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="18">
@@ -1378,34 +1378,34 @@
       <c r="O12" s="21">
         <v>9</v>
       </c>
-      <c r="P12" s="34">
-        <f>J12+K12+L12+M12+N12+O12</f>
+      <c r="P12" s="29">
+        <f t="shared" si="0"/>
         <v>11052</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>6</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="D13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="18">
@@ -1426,34 +1426,34 @@
       <c r="O13" s="21">
         <v>14</v>
       </c>
-      <c r="P13" s="34">
-        <f>J13+K13+L13+M13+N13+O13</f>
+      <c r="P13" s="29">
+        <f t="shared" si="0"/>
         <v>11040</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>7</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="33" t="s">
+      <c r="D14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="18">
@@ -1474,34 +1474,34 @@
       <c r="O14" s="21">
         <v>11</v>
       </c>
-      <c r="P14" s="34">
-        <f>J14+K14+L14+M14+N14+O14</f>
+      <c r="P14" s="29">
+        <f t="shared" si="0"/>
         <v>11038</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>8</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="33" t="s">
+      <c r="D15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="18">
@@ -1522,34 +1522,34 @@
       <c r="O15" s="21">
         <v>11</v>
       </c>
-      <c r="P15" s="34">
-        <f>J15+K15+L15+M15+N15+O15</f>
+      <c r="P15" s="29">
+        <f t="shared" si="0"/>
         <v>10144</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>9</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="33" t="s">
+      <c r="F16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J16" s="18">
@@ -1570,34 +1570,34 @@
       <c r="O16" s="21">
         <v>15</v>
       </c>
-      <c r="P16" s="34">
-        <f>J16+K16+L16+M16+N16+O16</f>
+      <c r="P16" s="29">
+        <f t="shared" si="0"/>
         <v>10142</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>10</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="33" t="s">
+      <c r="F17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="18">
@@ -1618,34 +1618,34 @@
       <c r="O17" s="21">
         <v>8</v>
       </c>
-      <c r="P17" s="34">
-        <f>J17+K17+L17+M17+N17+O17</f>
+      <c r="P17" s="29">
+        <f t="shared" si="0"/>
         <v>10130</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="31">
-        <v>11</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="B18" s="26">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="33" t="s">
+      <c r="F18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J18" s="18">
@@ -1666,34 +1666,34 @@
       <c r="O18" s="21">
         <v>10</v>
       </c>
-      <c r="P18" s="34">
-        <f>J18+K18+L18+M18+N18+O18</f>
+      <c r="P18" s="29">
+        <f t="shared" si="0"/>
         <v>10129</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="31">
-        <v>12</v>
-      </c>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="26">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="33" t="s">
+      <c r="F19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J19" s="18">
@@ -1714,34 +1714,34 @@
       <c r="O19" s="21">
         <v>5</v>
       </c>
-      <c r="P19" s="34">
-        <f>J19+K19+L19+M19+N19+O19</f>
+      <c r="P19" s="29">
+        <f t="shared" si="0"/>
         <v>10038</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="31">
-        <v>13</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="26">
+        <v>13</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      <c r="F20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="18">
@@ -1762,34 +1762,34 @@
       <c r="O20" s="21">
         <v>14</v>
       </c>
-      <c r="P20" s="34">
-        <f>J20+K20+L20+M20+N20+O20</f>
+      <c r="P20" s="29">
+        <f t="shared" si="0"/>
         <v>10036</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <v>14</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="33" t="s">
+      <c r="F21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="18">
@@ -1810,34 +1810,34 @@
       <c r="O21" s="21">
         <v>16</v>
       </c>
-      <c r="P21" s="34">
-        <f>J21+K21+L21+M21+N21+O21</f>
+      <c r="P21" s="29">
+        <f t="shared" si="0"/>
         <v>10029</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <v>15</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="F22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="18">
@@ -1858,41 +1858,41 @@
       <c r="O22" s="21">
         <v>12</v>
       </c>
-      <c r="P22" s="34">
-        <f>J22+K22+L22+M22+N22+O22</f>
+      <c r="P22" s="29">
+        <f t="shared" si="0"/>
         <v>10027</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>16</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="33" t="s">
+      <c r="F23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="18">
         <v>1</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L23" s="20">
         <v>2</v>
@@ -1906,41 +1906,41 @@
       <c r="O23" s="21">
         <v>13</v>
       </c>
-      <c r="P23" s="34">
-        <f>J23+K23+L23+M23+N23+O23</f>
+      <c r="P23" s="29">
+        <f t="shared" si="0"/>
         <v>1138</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>17</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="33" t="s">
+      <c r="F24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="18">
         <v>0</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="20">
         <v>2</v>
@@ -1954,41 +1954,41 @@
       <c r="O24" s="21">
         <v>5</v>
       </c>
-      <c r="P24" s="34">
-        <f>J24+K24+L24+M24+N24+O24</f>
+      <c r="P24" s="29">
+        <f t="shared" si="0"/>
         <v>1135</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="31">
+      <c r="B25" s="26">
         <v>18</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="33" t="s">
+      <c r="C25" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="18">
         <v>1</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" s="20">
         <v>1</v>
@@ -2002,41 +2002,41 @@
       <c r="O25" s="21">
         <v>8</v>
       </c>
-      <c r="P25" s="34">
-        <f>J25+K25+L25+M25+N25+O25</f>
+      <c r="P25" s="29">
+        <f t="shared" si="0"/>
         <v>1126</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="31">
+      <c r="B26" s="26">
         <v>19</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="C26" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="18">
         <v>0</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L26" s="20">
         <v>1</v>
@@ -2050,41 +2050,41 @@
       <c r="O26" s="21">
         <v>9</v>
       </c>
-      <c r="P26" s="34">
-        <f>J26+K26+L26+M26+N26+O26</f>
+      <c r="P26" s="29">
+        <f t="shared" si="0"/>
         <v>1122</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="31">
+      <c r="B27" s="26">
         <v>20</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="33" t="s">
+      <c r="C27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J27" s="18">
         <v>1</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L27" s="20">
         <v>3</v>
@@ -2098,41 +2098,41 @@
       <c r="O27" s="21">
         <v>12</v>
       </c>
-      <c r="P27" s="34">
-        <f>J27+K27+L27+M27+N27+O27</f>
+      <c r="P27" s="29">
+        <f t="shared" si="0"/>
         <v>1036</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="31">
+      <c r="B28" s="26">
         <v>21</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="33" t="s">
+      <c r="C28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="18">
         <v>0</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="20">
         <v>3</v>
@@ -2146,41 +2146,41 @@
       <c r="O28" s="21">
         <v>17</v>
       </c>
-      <c r="P28" s="34">
-        <f>J28+K28+L28+M28+N28+O28</f>
+      <c r="P28" s="29">
+        <f t="shared" si="0"/>
         <v>1034</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="31">
+      <c r="B29" s="26">
         <v>22</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="33" t="s">
+      <c r="C29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="18">
         <v>1</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="20">
         <v>1</v>
@@ -2194,41 +2194,41 @@
       <c r="O29" s="21">
         <v>3</v>
       </c>
-      <c r="P29" s="34">
-        <f>J29+K29+L29+M29+N29+O29</f>
+      <c r="P29" s="29">
+        <f t="shared" si="0"/>
         <v>1023</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="31">
+      <c r="B30" s="26">
         <v>23</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="33" t="s">
+      <c r="C30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="18">
         <v>0</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="20">
         <v>2</v>
@@ -2242,41 +2242,41 @@
       <c r="O30" s="21">
         <v>10</v>
       </c>
-      <c r="P30" s="34">
-        <f>J30+K30+L30+M30+N30+O30</f>
+      <c r="P30" s="29">
+        <f t="shared" si="0"/>
         <v>1022</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="31">
+      <c r="B31" s="26">
         <v>24</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="33" t="s">
+      <c r="C31" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J31" s="18">
         <v>1</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L31" s="20">
         <v>1</v>
@@ -2290,41 +2290,41 @@
       <c r="O31" s="21">
         <v>3</v>
       </c>
-      <c r="P31" s="34">
-        <f>J31+K31+L31+M31+N31+O31</f>
+      <c r="P31" s="29">
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="31">
+      <c r="B32" s="26">
         <v>25</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="33" t="s">
+      <c r="C32" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J32" s="18">
         <v>0</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L32" s="20">
         <v>2</v>
@@ -2338,41 +2338,41 @@
       <c r="O32" s="21">
         <v>4</v>
       </c>
-      <c r="P32" s="34">
-        <f>J32+K32+L32+M32+N32+O32</f>
+      <c r="P32" s="29">
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="31">
+      <c r="B33" s="26">
         <v>26</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="33" t="s">
+      <c r="C33" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="18">
         <v>1</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="20">
         <v>2</v>
@@ -2386,41 +2386,41 @@
       <c r="O33" s="21">
         <v>6</v>
       </c>
-      <c r="P33" s="34">
-        <f>J33+K33+L33+M33+N33+O33</f>
+      <c r="P33" s="29">
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="31">
+      <c r="B34" s="26">
         <v>27</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="33" t="s">
+      <c r="C34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="28" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="18">
         <v>0</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L34" s="20">
         <v>2</v>
@@ -2434,41 +2434,41 @@
       <c r="O34" s="21">
         <v>1</v>
       </c>
-      <c r="P34" s="34">
-        <f>J34+K34+L34+M34+N34+O34</f>
+      <c r="P34" s="29">
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="31">
+      <c r="B35" s="26">
         <v>28</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="33" t="s">
+      <c r="C35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="28" t="s">
         <v>10</v>
       </c>
       <c r="J35" s="18">
         <v>1</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" s="20">
         <v>1</v>
@@ -2482,41 +2482,41 @@
       <c r="O35" s="21">
         <v>7</v>
       </c>
-      <c r="P35" s="34">
-        <f>J35+K35+L35+M35+N35+O35</f>
+      <c r="P35" s="29">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="35">
+      <c r="B36" s="30">
         <v>29</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="37" t="s">
+      <c r="C36" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="32" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="22">
         <v>0</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L36" s="24">
         <v>1</v>
@@ -2530,8 +2530,8 @@
       <c r="O36" s="25">
         <v>4</v>
       </c>
-      <c r="P36" s="38">
-        <f>J36+K36+L36+M36+N36+O36</f>
+      <c r="P36" s="33">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
